--- a/volatility/src/5th.xlsx
+++ b/volatility/src/5th.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushi_mld/git/volatility/volatility/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99593DB3-F80E-1141-9C36-30265F3B7EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA67A4BE-82A1-BC49-99C4-8767AAEB3A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10860" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jpy" sheetId="51" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>amount</t>
     <phoneticPr fontId="1"/>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>USDCAD</t>
-  </si>
-  <si>
-    <t>USDCAD</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -148,6 +145,73 @@
   </si>
   <si>
     <t>buy</t>
+  </si>
+  <si>
+    <t>AUDCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AUDJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AUDNZD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CADJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CHFJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURAUD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURGBP</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPAUD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NZDUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>USDCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>USDJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURUSD</t>
   </si>
 </sst>
 </file>
@@ -617,8 +681,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -642,7 +706,7 @@
         <v>735</v>
       </c>
       <c r="J1" s="1">
-        <f>VLOOKUP(B2,median!A1:B4,2)</f>
+        <f>VLOOKUP(B2,median!A1:B20,2)</f>
         <v>1.3</v>
       </c>
       <c r="K1" s="1">
@@ -658,7 +722,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="10">
         <v>102</v>
@@ -861,8 +925,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -886,12 +950,12 @@
         <v>735</v>
       </c>
       <c r="J1" s="1">
-        <f>VLOOKUP(B2,median!A1:B4,2)</f>
-        <v>1.5</v>
+        <f>VLOOKUP(B2,median!A1:B20,2)</f>
+        <v>1.3</v>
       </c>
       <c r="K1" s="1">
         <f>1/J1</f>
-        <v>0.66666666666666663</v>
+        <v>0.76923076923076916</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>14</v>
@@ -899,7 +963,7 @@
     </row>
     <row r="2" spans="2:14" ht="24" customHeight="1">
       <c r="B2" s="10" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>10</v>
@@ -909,7 +973,7 @@
       </c>
       <c r="J2" s="1" t="str">
         <f>MID(B2,4,3)</f>
-        <v>CAD</v>
+        <v>USD</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>15</v>
@@ -920,14 +984,14 @@
       <c r="C3" s="6"/>
       <c r="J3" s="1">
         <f>VLOOKUP(J2,'jpy rate'!A1:B2,2)</f>
-        <v>82.6</v>
+        <v>109.2</v>
       </c>
       <c r="K3" s="1">
         <f>100/J3</f>
-        <v>1.2106537530266344</v>
+        <v>0.91575091575091572</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="24" customHeight="1">
@@ -941,18 +1005,18 @@
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>593.22033898305085</v>
+        <v>517.75147928994079</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="24" customHeight="1">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>8898</v>
+        <v>7766</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5*3/20</f>
-        <v>88.983050847457633</v>
+        <v>77.662721893491124</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>3</v>
@@ -963,7 +1027,7 @@
       <c r="C7" s="6"/>
       <c r="I7" s="1">
         <f>J1/100</f>
-        <v>1.4999999999999999E-2</v>
+        <v>1.3000000000000001E-2</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>4</v>
@@ -974,7 +1038,7 @@
       <c r="C8" s="6"/>
       <c r="I8" s="1">
         <f>ROUND(I7/amount!B2,4)</f>
-        <v>7.4999999999999997E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1">
@@ -983,7 +1047,7 @@
       </c>
       <c r="C9" s="9">
         <f>IF($C$2="buy",I11,J11)</f>
-        <v>0.98499999999999999</v>
+        <v>0.98699999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
@@ -992,7 +1056,7 @@
       </c>
       <c r="C10" s="9">
         <f>IF($C$2="buy",I12,J12)</f>
-        <v>1.0149999999999999</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -1002,11 +1066,11 @@
       <c r="D11" s="3"/>
       <c r="I11" s="1">
         <f>D2+I7</f>
-        <v>1.0149999999999999</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="J11" s="1">
         <f>I12</f>
-        <v>0.98499999999999999</v>
+        <v>0.98699999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1">
@@ -1015,15 +1079,15 @@
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>1.0075000000000001</v>
+        <v>1.0065</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
-        <v>0.98499999999999999</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="J12" s="1">
         <f>I11</f>
-        <v>1.0149999999999999</v>
+        <v>1.0129999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1">
@@ -1032,7 +1096,7 @@
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>1.0225</v>
+        <v>1.0194999999999999</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1">
@@ -1041,15 +1105,15 @@
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>0.99250000000000005</v>
+        <v>0.99349999999999994</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>0.99250000000000005</v>
+        <v>0.99350000000000005</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>1.0075000000000001</v>
+        <v>1.0065</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1">
@@ -1057,11 +1121,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>0.97750000000000004</v>
+        <v>0.98050000000000004</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>1.0225</v>
+        <v>1.0194999999999999</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1">
@@ -1069,11 +1133,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>1.0075000000000001</v>
+        <v>1.0065</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>0.99250000000000005</v>
+        <v>0.99349999999999994</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24" customHeight="1">
@@ -1171,7 +1235,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5">
         <v>82.6</v>
@@ -1179,7 +1243,7 @@
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5">
         <v>109.2</v>
@@ -1203,10 +1267,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="21" customHeight="1"/>
@@ -1216,34 +1280,162 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="21" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="21" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="21" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="21" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="21" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="21" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/volatility/src/5th.xlsx
+++ b/volatility/src/5th.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushi_mld/git/volatility/volatility/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA67A4BE-82A1-BC49-99C4-8767AAEB3A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC9486C-D488-FE44-B977-6BC3DC472F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9900" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jpy" sheetId="51" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>amount</t>
     <phoneticPr fontId="1"/>
@@ -144,9 +144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>AUDCHF</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -211,7 +208,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>EURUSD</t>
+    <t>USDCAD</t>
   </si>
 </sst>
 </file>
@@ -682,7 +679,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -703,7 +700,7 @@
       </c>
       <c r="I1" s="1">
         <f>amount!B1</f>
-        <v>735</v>
+        <v>1000</v>
       </c>
       <c r="J1" s="1">
         <f>VLOOKUP(B2,median!A1:B20,2)</f>
@@ -722,10 +719,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D2" s="10">
-        <v>102</v>
+        <v>69.614500000000007</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>MID(B2,4,3)</f>
@@ -757,7 +754,7 @@
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>565.38461538461536</v>
+        <v>769.23076923076917</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>4</v>
@@ -766,12 +763,12 @@
     <row r="6" spans="2:14" ht="24" customHeight="1">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>8480</v>
+        <v>11538</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5*3/20</f>
-        <v>84.807692307692307</v>
+        <v>115.38461538461539</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="24" customHeight="1">
@@ -796,7 +793,7 @@
       </c>
       <c r="C9" s="9">
         <f>IF($C$2="buy",I11,J11)</f>
-        <v>103.3</v>
+        <v>68.31450000000001</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
@@ -805,7 +802,7 @@
       </c>
       <c r="C10" s="9">
         <f>IF($C$2="buy",I12,J12)</f>
-        <v>100.7</v>
+        <v>70.914500000000004</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -815,11 +812,11 @@
       <c r="D11" s="3"/>
       <c r="I11" s="1">
         <f>D2+I7</f>
-        <v>103.3</v>
+        <v>70.914500000000004</v>
       </c>
       <c r="J11" s="1">
         <f>I12</f>
-        <v>100.7</v>
+        <v>68.31450000000001</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1">
@@ -828,15 +825,15 @@
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>101.35</v>
+        <v>70.264500000000012</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
-        <v>100.7</v>
+        <v>68.31450000000001</v>
       </c>
       <c r="J12" s="1">
         <f>I11</f>
-        <v>103.3</v>
+        <v>70.914500000000004</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1">
@@ -845,7 +842,7 @@
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>100.05</v>
+        <v>71.56450000000001</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1">
@@ -854,15 +851,15 @@
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>102.64999999999999</v>
+        <v>68.964500000000015</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>101.35</v>
+        <v>68.964500000000001</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>102.65</v>
+        <v>70.264500000000012</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1">
@@ -870,11 +867,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>100.05</v>
+        <v>67.664500000000004</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>103.95</v>
+        <v>71.56450000000001</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1">
@@ -882,11 +879,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>102.64999999999999</v>
+        <v>70.264499999999998</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>101.35000000000001</v>
+        <v>68.964500000000015</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24" customHeight="1">
@@ -926,7 +923,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -947,15 +944,15 @@
       </c>
       <c r="I1" s="1">
         <f>amount!B1</f>
-        <v>735</v>
+        <v>1000</v>
       </c>
       <c r="J1" s="1">
         <f>VLOOKUP(B2,median!A1:B20,2)</f>
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K1" s="1">
         <f>1/J1</f>
-        <v>0.76923076923076916</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>14</v>
@@ -963,17 +960,17 @@
     </row>
     <row r="2" spans="2:14" ht="24" customHeight="1">
       <c r="B2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="10">
-        <v>1</v>
+        <v>1.3220700000000001</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>MID(B2,4,3)</f>
-        <v>USD</v>
+        <v>CAD</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>15</v>
@@ -984,11 +981,11 @@
       <c r="C3" s="6"/>
       <c r="J3" s="1">
         <f>VLOOKUP(J2,'jpy rate'!A1:B2,2)</f>
-        <v>109.2</v>
+        <v>82.2</v>
       </c>
       <c r="K3" s="1">
         <f>100/J3</f>
-        <v>0.91575091575091572</v>
+        <v>1.2165450121654502</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>16</v>
@@ -1005,18 +1002,18 @@
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>517.75147928994079</v>
+        <v>811.03000811030006</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="24" customHeight="1">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>7766</v>
+        <v>12165</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5*3/20</f>
-        <v>77.662721893491124</v>
+        <v>121.65450121654501</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>3</v>
@@ -1027,7 +1024,7 @@
       <c r="C7" s="6"/>
       <c r="I7" s="1">
         <f>J1/100</f>
-        <v>1.3000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>4</v>
@@ -1038,7 +1035,7 @@
       <c r="C8" s="6"/>
       <c r="I8" s="1">
         <f>ROUND(I7/amount!B2,4)</f>
-        <v>6.4999999999999997E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="24" customHeight="1">
@@ -1047,7 +1044,7 @@
       </c>
       <c r="C9" s="9">
         <f>IF($C$2="buy",I11,J11)</f>
-        <v>0.98699999999999999</v>
+        <v>1.3070700000000002</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
@@ -1056,7 +1053,7 @@
       </c>
       <c r="C10" s="9">
         <f>IF($C$2="buy",I12,J12)</f>
-        <v>1.0129999999999999</v>
+        <v>1.33707</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -1066,11 +1063,11 @@
       <c r="D11" s="3"/>
       <c r="I11" s="1">
         <f>D2+I7</f>
-        <v>1.0129999999999999</v>
+        <v>1.33707</v>
       </c>
       <c r="J11" s="1">
         <f>I12</f>
-        <v>0.98699999999999999</v>
+        <v>1.3070700000000002</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1">
@@ -1079,15 +1076,15 @@
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>1.0065</v>
+        <v>1.3295700000000001</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
-        <v>0.98699999999999999</v>
+        <v>1.3070700000000002</v>
       </c>
       <c r="J12" s="1">
         <f>I11</f>
-        <v>1.0129999999999999</v>
+        <v>1.33707</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1">
@@ -1096,7 +1093,7 @@
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>1.0194999999999999</v>
+        <v>1.34457</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1">
@@ -1105,15 +1102,15 @@
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>0.99349999999999994</v>
+        <v>1.3145700000000002</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>0.99350000000000005</v>
+        <v>1.31457</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>1.0065</v>
+        <v>1.3295700000000001</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1">
@@ -1121,11 +1118,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>0.98050000000000004</v>
+        <v>1.2995700000000001</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>1.0194999999999999</v>
+        <v>1.34457</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1">
@@ -1133,11 +1130,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>1.0065</v>
+        <v>1.3295699999999999</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>0.99349999999999994</v>
+        <v>1.3145700000000002</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24" customHeight="1">
@@ -1177,7 +1174,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="21" customHeight="1"/>
@@ -1190,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>735</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
@@ -1225,7 +1222,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="21" customHeight="1"/>
@@ -1238,7 +1235,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="5">
-        <v>82.6</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
@@ -1246,7 +1243,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="5">
-        <v>109.2</v>
+        <v>108.7</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1277,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5">
         <v>1.1000000000000001</v>
@@ -1288,7 +1285,7 @@
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5">
         <v>1.5</v>
@@ -1296,7 +1293,7 @@
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5">
         <v>1.1000000000000001</v>
@@ -1312,7 +1309,7 @@
     </row>
     <row r="5" spans="1:2" ht="21" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5">
         <v>1.4</v>
@@ -1320,7 +1317,7 @@
     </row>
     <row r="6" spans="1:2" ht="21" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5">
         <v>1.3</v>
@@ -1328,7 +1325,7 @@
     </row>
     <row r="7" spans="1:2" ht="21" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5">
         <v>2.1</v>
@@ -1336,7 +1333,7 @@
     </row>
     <row r="8" spans="1:2" ht="21" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -1344,7 +1341,7 @@
     </row>
     <row r="9" spans="1:2" ht="21" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5">
         <v>1.2</v>
@@ -1352,7 +1349,7 @@
     </row>
     <row r="10" spans="1:2" ht="21" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5">
         <v>1.6</v>
@@ -1368,7 +1365,7 @@
     </row>
     <row r="12" spans="1:2" ht="21" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5">
         <v>3.3</v>
@@ -1376,7 +1373,7 @@
     </row>
     <row r="13" spans="1:2" ht="21" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5">
         <v>2</v>
@@ -1384,7 +1381,7 @@
     </row>
     <row r="14" spans="1:2" ht="21" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5">
         <v>2.6</v>
@@ -1392,7 +1389,7 @@
     </row>
     <row r="15" spans="1:2" ht="21" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5">
         <v>2.1</v>
@@ -1408,7 +1405,7 @@
     </row>
     <row r="17" spans="1:2" ht="21" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5">
         <v>1.2</v>
@@ -1424,7 +1421,7 @@
     </row>
     <row r="19" spans="1:2" ht="21" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5">
         <v>1.2</v>
@@ -1432,7 +1429,7 @@
     </row>
     <row r="20" spans="1:2" ht="21" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="5">
         <v>1.3</v>
